--- a/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
@@ -20,21 +20,22 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
@@ -49,6 +50,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1061,7 +1063,7 @@
 5000159438940</t>
   </si>
   <si>
-    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух/влаж)С  распол внутр соответс бренд блоков</t>
+    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков</t>
   </si>
   <si>
     <t xml:space="preserve">Тип выкладки</t>
@@ -2042,9 +2044,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="143.967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.0202429149798"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="154.935222672065"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.7611336032389"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,48 +2266,48 @@
     <tabColor rgb="FF99FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE69"/>
+  <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="Q45" activeCellId="0" sqref="Q45"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="AF69" activeCellId="0" sqref="AF69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.202429149798"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="141.109311740891"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="113.688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="70.9554655870445"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="50.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.7854251012146"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="187.95951417004"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="57.587044534413"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="52.331983805668"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="31.5344129554656"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="25.4817813765182"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="35.7651821862348"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="36.2186234817814"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="26.5101214574899"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="59.0728744939271"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="59.7570850202429"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="38.3927125506073"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="38.8502024291498"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="33.251012145749"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="53.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9109311740891"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="129.344129554656"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.85020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="122.372469635628"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="76.4412955465587"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.1578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.3562753036437"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="64.5587044534413"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="202.356275303644"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="61.9271255060729"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="56.331983805668"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="33.9352226720648"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="27.3076923076923"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.5060728744939"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="38.9635627530364"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.5668016194332"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="63.6437246963563"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="64.3279352226721"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="41.3603238866397"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="41.8178137651822"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="35.7651821862348"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="57.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2468,6 +2470,10 @@
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
+      <c r="AF2" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E2," - ",I2,"' WHERE type = '",E2,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4264 - Среднее кол-во полок c кормами и лакомствами для кошек на стеллаже' WHERE type = '4264-RUS';</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
@@ -2536,6 +2542,10 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
+      <c r="AF3" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E3," - ",I3,"' WHERE type = '",E3,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4351 - Среднее кол-во полок c кормами и лакомствами для собак на стеллаже' WHERE type = '4351-RUS';</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
@@ -2604,6 +2614,10 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
+      <c r="AF4" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E4," - ",I4,"' WHERE type = '",E4,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4783 - Укажите колличество стеллажей кошки' WHERE type = '4783-RUS';</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
@@ -2672,6 +2686,10 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
+      <c r="AF5" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E5," - ",I5,"' WHERE type = '",E5,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4784 - Укажите количество стеллажей собаки' WHERE type = '4784-RUS';</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
@@ -2740,6 +2758,10 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
+      <c r="AF6" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E6," - ",I6,"' WHERE type = '",E6,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4785 - Укажите количсетво  стеллажей всей категории' WHERE type = '4785-RUS';</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
@@ -2808,6 +2830,10 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
+      <c r="AF7" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E7," - ",I7,"' WHERE type = '",E7,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4268 - Whiskas - Рагу говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4268-RUS';</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
@@ -2876,6 +2902,10 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
+      <c r="AF8" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E8," - ",I8,"' WHERE type = '",E8,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4273 - Whiskas - Желе говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4273-RUS';</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
@@ -2944,6 +2974,10 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
+      <c r="AF9" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E9," - ",I9,"' WHERE type = '",E9,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4274 - Whiskas - Рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4274-RUS';</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
@@ -3013,6 +3047,10 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
+      <c r="AF10" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E10," - ",I10,"' WHERE type = '",E10,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4276 - Whiskas - Желе курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4276-RUS';</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -3081,6 +3119,10 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
+      <c r="AF11" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E11," - ",I11,"' WHERE type = '",E11,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4282 - Kitekat говядина в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4282-RUS';</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
@@ -3149,6 +3191,10 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
+      <c r="AF12" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E12," - ",I12,"' WHERE type = '",E12,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4284 - Kitekat курица в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4284-RUS';</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -3217,6 +3263,10 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
+      <c r="AF13" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E13," - ",I13,"' WHERE type = '",E13,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4285 - Kitekat кролик в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4285-RUS';</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -3287,6 +3337,10 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
+      <c r="AF14" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E14," - ",I14,"' WHERE type = '",E14,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4275 - Sheba - ломтики в соусе с курицей и индейкой 85г [Кол-во гориз-х фэйсов на основной полке]' WHERE type = '4275-RUS';</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -3355,6 +3409,10 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
+      <c r="AF15" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E15," - ",I15,"' WHERE type = '",E15,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4277 - Perfect Fit - для стерил. Кошек с курицей 85г [Кол-во горизонтальных фэйсов на осн. полке]' WHERE type = '4277-RUS';</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -3423,6 +3481,10 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
+      <c r="AF16" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E16," - ",I16,"' WHERE type = '",E16,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4283 - Pedigree говядина в соусе 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4283-RUS';</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -3493,6 +3555,10 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
+      <c r="AF17" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E17," - ",I17,"' WHERE type = '",E17,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4510 - Whiskas - для котят рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4510-RUS';</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -3563,6 +3629,10 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
+      <c r="AF18" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E18," - ",I18,"' WHERE type = '",E18,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4511 - Whiskas - паштет курица/индейка 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4511-RUS';</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
@@ -3627,6 +3697,10 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
+      <c r="AF19" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E19," - ",I19,"' WHERE type = '",E19,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4254 - Выберите планограмму в зависимости от фактического размера выкладки Марс' WHERE type = '4254-RUS';</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
@@ -3691,6 +3765,10 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
+      <c r="AF20" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E20," - ",I20,"' WHERE type = '",E20,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4513 - Сум. лин. размер влажн. однопор. кормов Wh pouch мин. на 20% &gt; любого другого премиум бренда' WHERE type = '4513-RUS';</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
@@ -3755,6 +3833,10 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
+      <c r="AF21" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E21," - ",I21,"' WHERE type = '",E21,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4514 - Сум. лин. размер влажн. однопор. кормов  PFt + Sh  мин на 25% &gt; любого др. суперпрем бренда' WHERE type = '4514-RUS';</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
@@ -3819,6 +3901,10 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
+      <c r="AF22" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E22," - ",I22,"' WHERE type = '",E22,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4317 - TOP 12 SKU расположены на полках 3-6 вкл. (для Гипермаркетов - 2-6 вкл)' WHERE type = '4317-RUS';</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
@@ -3887,6 +3973,10 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
+      <c r="AF23" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E23," - ",I23,"' WHERE type = '",E23,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4261 - Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE type = '4261-RUS';</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
@@ -3953,6 +4043,10 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
+      <c r="AF24" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E24," - ",I24,"' WHERE type = '",E24,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4262 - Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE type = '4262-RUS';</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
@@ -4023,6 +4117,10 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
+      <c r="AF25" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E25," - ",I25,"' WHERE type = '",E25,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4263 - В торговой точке присутствует частная марка в категории кошки' WHERE type = '4263-RUS';</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
@@ -4091,6 +4189,10 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
+      <c r="AF26" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E26," - ",I26,"' WHERE type = '",E26,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4265 - Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4265-RUS';</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="11"/>
@@ -4157,6 +4259,10 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
+      <c r="AF27" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E27," - ",I27,"' WHERE type = '",E27,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4266 - Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4266-RUS';</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
@@ -4221,6 +4327,10 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="11"/>
+      <c r="AF28" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E28," - ",I28,"' WHERE type = '",E28,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4255 - Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE type = '4255-RUS';</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
@@ -4285,6 +4395,10 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="11"/>
+      <c r="AF29" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E29," - ",I29,"' WHERE type = '",E29,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4148 - Катег. распол. вне тупика и наход. дальше 3м от входа/выхода и касс зоны (1м для магаз. 100)' WHERE type = '4148-RUS';</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
@@ -4349,6 +4463,10 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
+      <c r="AF30" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E30," - ",I30,"' WHERE type = '",E30,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4149 - Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (1)' WHERE type = '4149-RUS';</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
@@ -4413,6 +4531,10 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="11"/>
+      <c r="AF31" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E31," - ",I31,"' WHERE type = '",E31,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4150 - Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (2) ' WHERE type = '4150-RUS';</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
@@ -4483,6 +4605,10 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="11"/>
+      <c r="AF32" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E32," - ",I32,"' WHERE type = '",E32,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4267 - В торговой точке присутствует частная марка в категории собаки' WHERE type = '4267-RUS';</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
@@ -4553,6 +4679,10 @@
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
       <c r="AE33" s="11"/>
+      <c r="AF33" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E33," - ",I33,"' WHERE type = '",E33,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4305 - Бренд-блок Whiskas - самый большой в категории' WHERE type = '4305-RUS';</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
@@ -4619,6 +4749,10 @@
       <c r="AC34" s="11"/>
       <c r="AD34" s="11"/>
       <c r="AE34" s="11"/>
+      <c r="AF34" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E34," - ",I34,"' WHERE type = '",E34,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4306 - Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE type = '4306-RUS';</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
@@ -4683,6 +4817,10 @@
       <c r="AC35" s="11"/>
       <c r="AD35" s="11"/>
       <c r="AE35" s="11"/>
+      <c r="AF35" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E35," - ",I35,"' WHERE type = '",E35,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4191 - ЕстьЦА: Кат выстр либо в ед линию, либо в две линии строго др. напр. др. (лицом др к др)' WHERE type = '4191-RUS';</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
@@ -4747,6 +4885,10 @@
       <c r="AC36" s="11"/>
       <c r="AD36" s="11"/>
       <c r="AE36" s="11"/>
+      <c r="AF36" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E36," - ",I36,"' WHERE type = '",E36,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4688 - В магазине есть центральная аллея (ЦА)' WHERE type = '4688-RUS';</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
@@ -4811,6 +4953,10 @@
       <c r="AC37" s="11"/>
       <c r="AD37" s="11"/>
       <c r="AE37" s="11"/>
+      <c r="AF37" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E37," - ",I37,"' WHERE type = '",E37,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4256 - ЕстьЦА: Катег тов д/жив примык к ЦНТР АЛ, виз-но доступна покуп-лю по ходу движ' WHERE type = '4256-RUS';</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
@@ -4875,6 +5021,10 @@
       <c r="AC38" s="11"/>
       <c r="AD38" s="11"/>
       <c r="AE38" s="11"/>
+      <c r="AF38" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E38," - ",I38,"' WHERE type = '",E38,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4219 - ЕстьЦА: Катег тов д/жив примык к ПРОМО АЛ виз-но доступна покуп-лю и наход-ся &gt;5м от входа' WHERE type = '4219-RUS';</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
@@ -4939,6 +5089,10 @@
       <c r="AC39" s="11"/>
       <c r="AD39" s="11"/>
       <c r="AE39" s="11"/>
+      <c r="AF39" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E39," - ",I39,"' WHERE type = '",E39,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4307 - Ассорт для Кот/Щен и Senior сгруп (сух и влаж) распол внутри соответст бренд-блоков' WHERE type = '4307-RUS';</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
@@ -5005,6 +5159,10 @@
       <c r="AC40" s="11"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="11"/>
+      <c r="AF40" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E40," - ",I40,"' WHERE type = '",E40,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4315 - Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WH-PF -SH, NT, SH трэй  ' WHERE type = '4315-RUS';</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11"/>
@@ -5069,6 +5227,10 @@
       <c r="AC41" s="11"/>
       <c r="AD41" s="11"/>
       <c r="AE41" s="11"/>
+      <c r="AF41" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E41," - ",I41,"' WHERE type = '",E41,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4318 - В наличии ценники для каждого SKU' WHERE type = '4318-RUS';</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
@@ -5135,6 +5297,10 @@
       <c r="AC42" s="11"/>
       <c r="AD42" s="11"/>
       <c r="AE42" s="11"/>
+      <c r="AF42" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E42," - ",I42,"' WHERE type = '",E42,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4512 - Сум лин размер влажных однопорц корм KEK pouch мин на 50% &gt; любого бренда в эконом паучах' WHERE type = '4512-RUS';</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
@@ -5199,6 +5365,10 @@
       <c r="AC43" s="11"/>
       <c r="AD43" s="11"/>
       <c r="AE43" s="11"/>
+      <c r="AF43" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E43," - ",I43,"' WHERE type = '",E43,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4515 - Выкладка Mars Dogs не меньше 15% от общей выкладки Mars' WHERE type = '4515-RUS';</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
@@ -5265,6 +5435,10 @@
       <c r="AC44" s="11"/>
       <c r="AD44" s="11"/>
       <c r="AE44" s="11"/>
+      <c r="AF44" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E44," - ",I44,"' WHERE type = '",E44,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4316 - Вык Апп. Микс с 1-й стороны сосед с Wh pouch, с др - с PF pouch, либо Sh mini, либо Fel' WHERE type = '4316-RUS';</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
@@ -5329,6 +5503,10 @@
       <c r="AC45" s="11"/>
       <c r="AD45" s="11"/>
       <c r="AE45" s="11"/>
+      <c r="AF45" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E45," - ",I45,"' WHERE type = '",E45,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='90003 - В магазине есть ДМП' WHERE type = '90003-RUS';</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
@@ -5395,6 +5573,10 @@
       <c r="AC46" s="11"/>
       <c r="AD46" s="11"/>
       <c r="AE46" s="11"/>
+      <c r="AF46" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E46," - ",I46,"' WHERE type = '",E46,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='2527 - Количество сцен ДМП Nestle' WHERE type = '2527-RUS';</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
@@ -5465,6 +5647,10 @@
       <c r="AC47" s="11"/>
       <c r="AD47" s="11"/>
       <c r="AE47" s="11"/>
+      <c r="AF47" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E47," - ",I47,"' WHERE type = '",E47,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4697 - Укажите количество навесок с лакомствами для кошек' WHERE type = '4697-RUS';</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
@@ -5535,6 +5721,10 @@
       <c r="AC48" s="11"/>
       <c r="AD48" s="11"/>
       <c r="AE48" s="11"/>
+      <c r="AF48" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E48," - ",I48,"' WHERE type = '",E48,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4698 - Укажите количество навесок с лакомствами для собак' WHERE type = '4698-RUS';</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11"/>
@@ -5605,6 +5795,10 @@
       <c r="AC49" s="11"/>
       <c r="AD49" s="11"/>
       <c r="AE49" s="11"/>
+      <c r="AF49" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E49," - ",I49,"' WHERE type = '",E49,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4630 - В тт есть выделен секция лакомств для кошек и/или собак с присутст  на ней прод Марс' WHERE type = '4630-RUS';</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
@@ -5675,6 +5869,10 @@
       <c r="AC50" s="11"/>
       <c r="AD50" s="11"/>
       <c r="AE50" s="11"/>
+      <c r="AF50" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E50," - ",I50,"' WHERE type = '",E50,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4631 - В тт В ПРИЛЕГ К КАС ЗОНЕ присутт лаком для кош и/или соб Марс' WHERE type = '4631-RUS';</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="11"/>
@@ -5739,6 +5937,10 @@
       <c r="AC51" s="11"/>
       <c r="AD51" s="11"/>
       <c r="AE51" s="11"/>
+      <c r="AF51" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E51," - ",I51,"' WHERE type = '",E51,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4601 - НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (1)' WHERE type = '4601-RUS';</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
@@ -5803,6 +6005,10 @@
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
       <c r="AE52" s="11"/>
+      <c r="AF52" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E52," - ",I52,"' WHERE type = '",E52,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4602 - НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (2)' WHERE type = '4602-RUS';</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
@@ -5867,6 +6073,10 @@
       <c r="AC53" s="11"/>
       <c r="AD53" s="11"/>
       <c r="AE53" s="11"/>
+      <c r="AF53" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E53," - ",I53,"' WHERE type = '",E53,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4603 - НетЦА: Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE type = '4603-RUS';</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
@@ -5931,6 +6141,10 @@
       <c r="AC54" s="11"/>
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
+      <c r="AF54" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E54," - ",I54,"' WHERE type = '",E54,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4604 - НетЦА: Катег распол вне тупика и находится дальше 5м от входа/выхода и кассовой зоны' WHERE type = '4604-RUS';</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
@@ -5993,6 +6207,10 @@
       <c r="AC55" s="11"/>
       <c r="AD55" s="11"/>
       <c r="AE55" s="11"/>
+      <c r="AF55" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E55," - ",I55,"' WHERE type = '",E55,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='5070 - Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух' WHERE type = '5070-RUS';</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
@@ -6061,6 +6279,10 @@
       <c r="AC56" s="11"/>
       <c r="AD56" s="11"/>
       <c r="AE56" s="11"/>
+      <c r="AF56" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E56," - ",I56,"' WHERE type = '",E56,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='5032 - PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5032-RUS';</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
@@ -6131,6 +6353,10 @@
       <c r="AC57" s="11"/>
       <c r="AD57" s="11"/>
       <c r="AE57" s="11"/>
+      <c r="AF57" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E57," - ",I57,"' WHERE type = '",E57,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='5033 - Sheba - ломтики в соусе с телят. и яз. 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5033-RUS';</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
@@ -6199,6 +6425,10 @@
       <c r="AC58" s="11"/>
       <c r="AD58" s="11"/>
       <c r="AE58" s="11"/>
+      <c r="AF58" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E58," - ",I58,"' WHERE type = '",E58,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='5034 - Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5034-RUS';</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
@@ -6267,6 +6497,10 @@
       <c r="AC59" s="11"/>
       <c r="AD59" s="11"/>
       <c r="AE59" s="11"/>
+      <c r="AF59" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E59," - ",I59,"' WHERE type = '",E59,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1010 - Сум раз выклад Др произ (в м) на всех полках для кат кош (вкл лаком на осн полке БЕЗ Liter)' WHERE type = '1010-RUS';</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
@@ -6335,6 +6569,10 @@
       <c r="AC60" s="11"/>
       <c r="AD60" s="11"/>
       <c r="AE60" s="11"/>
+      <c r="AF60" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E60," - ",I60,"' WHERE type = '",E60,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1011 - Сум раз выклад Др произ (в м) на всех полках для кат соб (вкл лаком на осн полке)' WHERE type = '1011-RUS';</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="11"/>
@@ -6395,6 +6633,10 @@
       <c r="AC61" s="11"/>
       <c r="AD61" s="11"/>
       <c r="AE61" s="11"/>
+      <c r="AF61" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E61," - ",I61,"' WHERE type = '",E61,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1013 - Доля полки Других производителей' WHERE type = '1013-RUS';</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
@@ -6465,6 +6707,10 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
+      <c r="AF62" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E62," - ",I62,"' WHERE type = '",E62,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1012 - Укажите количество SKU Другие производители' WHERE type = '1012-RUS';</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="11"/>
@@ -6535,6 +6781,10 @@
       <c r="AC63" s="11"/>
       <c r="AD63" s="11"/>
       <c r="AE63" s="11"/>
+      <c r="AF63" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E63," - ",I63,"' WHERE type = '",E63,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1014 - Укажите количество SKU MARS' WHERE type = '1014-RUS';</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11"/>
@@ -6595,6 +6845,10 @@
       <c r="AC64" s="11"/>
       <c r="AD64" s="11"/>
       <c r="AE64" s="11"/>
+      <c r="AF64" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E64," - ",I64,"' WHERE type = '",E64,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1015 - Доля ассортимента  Других производителей' WHERE type = '1015-RUS';</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
@@ -6655,6 +6909,10 @@
       <c r="AC65" s="11"/>
       <c r="AD65" s="11"/>
       <c r="AE65" s="11"/>
+      <c r="AF65" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E65," - ",I65,"' WHERE type = '",E65,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='1016 - PSS Другие производители' WHERE type = '1016-RUS';</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
@@ -6719,6 +6977,10 @@
       <c r="AC66" s="11"/>
       <c r="AD66" s="11"/>
       <c r="AE66" s="11"/>
+      <c r="AF66" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E66," - ",I66,"' WHERE type = '",E66,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='6048 - Влаж.корма Марс внутри выкл. кошек в порядке: Whs Pch - PFit - Shb Pch - N&amp;T' WHERE type = '6048-RUS';</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
@@ -6783,6 +7045,10 @@
       <c r="AC67" s="11"/>
       <c r="AD67" s="11"/>
       <c r="AE67" s="11"/>
+      <c r="AF67" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E67," - ",I67,"' WHERE type = '",E67,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='6049 - Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак' WHERE type = '6049-RUS';</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
@@ -6853,6 +7119,10 @@
       <c r="AC68" s="11"/>
       <c r="AD68" s="11"/>
       <c r="AE68" s="11"/>
+      <c r="AF68" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E68," - ",I68,"' WHERE type = '",E68,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='5036 - Whiskas Meaty говядина 28*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5036-RUS';</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
@@ -6920,9 +7190,13 @@
       <c r="AC69" s="14"/>
       <c r="AD69" s="14"/>
       <c r="AE69" s="14"/>
+      <c r="AF69" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E69," - ",I69,"' WHERE type = '",E69,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='6070 - Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках' WHERE type = '6070-RUS';</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AE69"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6940,44 +7214,44 @@
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" activeCellId="0" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9635627530364"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="79.1821862348178"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="141.109311740891"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="160.534412955466"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="47.1902834008097"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="50.3886639676113"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.7854251012146"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="50.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="57.587044534413"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="52.331983805668"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="25.4817813765182"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="13.9392712550607"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="35.7651821862348"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="36.2186234817814"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="31.8785425101215"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="48.7894736842105"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3238866396761"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.8825910931174"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9109311740891"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="85.2388663967611"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6518218623482"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.85020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="172.761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.7327935222672"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.1578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.3562753036437"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="64.5587044534413"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="54.1578947368421"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="61.9271255060729"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="56.331983805668"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.165991902834"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="27.3076923076923"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8542510121458"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.5060728744939"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="38.9635627530364"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="52.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7144,6 +7418,10 @@
       <c r="AC2" s="11"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
+      <c r="AF2" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E2," - ",I2,"' WHERE type = '",E2,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4697 - Укажите количество навесок с лакомствами для кошек' WHERE type = '4697-RUS';</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
@@ -7214,6 +7492,10 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="11"/>
+      <c r="AF3" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E3," - ",I3,"' WHERE type = '",E3,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4698 - Укажите количество навесок с лакомствами для собак' WHERE type = '4698-RUS';</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
@@ -7278,6 +7560,10 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="11"/>
+      <c r="AF4" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E4," - ",I4,"' WHERE type = '",E4,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4259 - Кат кормов разм в 1 зале по ходу движ покуп Drog SS или в рад 3 м от места расчета Drog BTC' WHERE type = '4259-RUS';</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
@@ -7342,6 +7628,10 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
+      <c r="AF5" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E5," - ",I5,"' WHERE type = '",E5,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4200 - Кат корм прим или наход в рад 3 м от центра выкл одной из приор категории' WHERE type = '4200-RUS';</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
@@ -7406,6 +7696,10 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
+      <c r="AF6" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E6," - ",I6,"' WHERE type = '",E6,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4260 - Категория располагается вне тупика и находится дальше 3м от входа/выхода' WHERE type = '4260-RUS';</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
@@ -7474,6 +7768,10 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
+      <c r="AF7" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E7," - ",I7,"' WHERE type = '",E7,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4269 - Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE type = '4269-RUS';</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
@@ -7540,6 +7838,10 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
+      <c r="AF8" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E8," - ",I8,"' WHERE type = '",E8,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4270 - Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE type = '4270-RUS';</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
@@ -7608,6 +7910,10 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
+      <c r="AF9" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E9," - ",I9,"' WHERE type = '",E9,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4271 - Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4271-RUS';</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
@@ -7674,6 +7980,10 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
+      <c r="AF10" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E10," - ",I10,"' WHERE type = '",E10,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4272 - Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4272-RUS';</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -7744,6 +8054,10 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="11"/>
+      <c r="AF11" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E11," - ",I11,"' WHERE type = '",E11,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4358 - В торговой точке присутствует хотя бы 1 линия кормов Марс' WHERE type = '4358-RUS';</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
@@ -7808,6 +8122,10 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
+      <c r="AF12" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E12," - ",I12,"' WHERE type = '",E12,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4636 - В тт есть ДМП Марс (с cat пауч + лаком) в прикас зоне или в приоритетной категории' WHERE type = '4636-RUS';</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -7872,6 +8190,10 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
+      <c r="AF13" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E13," - ",I13,"' WHERE type = '",E13,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4647 - Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE type = '4647-RUS';</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
@@ -7936,6 +8258,10 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
+      <c r="AF14" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E14," - ",I14,"' WHERE type = '",E14,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4648 - Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WHсPF -SH, NT, SH трэй ' WHERE type = '4648-RUS';</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -8000,6 +8326,10 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
+      <c r="AF15" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E15," - ",I15,"' WHERE type = '",E15,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4649 - Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком' WHERE type = '4649-RUS';</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -8066,6 +8396,10 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
+      <c r="AF16" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E16," - ",I16,"' WHERE type = '",E16,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4650 - TOP 12 SKU расположены в соответствии с планограммой: с 3 полки по 6-ю включительно' WHERE type = '4650-RUS';</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
@@ -8130,6 +8464,10 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
+      <c r="AF17" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E17," - ",I17,"' WHERE type = '",E17,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4651 - Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков' WHERE type = '4651-RUS';</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
@@ -8192,6 +8530,10 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
+      <c r="AF18" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E18," - ",I18,"' WHERE type = '",E18,"-RUS';")</f>
+        <v>UPDATE static.kpi_level_2 SET client_name ='4704 - В магазине тип выкладки А' WHERE type = '4704-RUS';</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AE1"/>
@@ -8219,14 +8561,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="111.174089068826"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="31.6518218623482"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.4817813765182"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="111.174089068826"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30.165991902834"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="64.4412955465587"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="34.0485829959514"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.3076923076923"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="119.744939271255"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="69.3562753036437"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27261,11 +27604,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="16.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3927125506073"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.7287449392713"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.5951417004049"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0769230769231"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0202429149798"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0971659919028"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29078,9 +29420,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.3279352226721"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.8987854251012"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29148,9 +29490,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4736842105263"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29209,10 +29551,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.0202429149798"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="153.793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7611336032389"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="165.562753036437"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.2186234817814"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29403,11 +29745,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.4736842105263"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.5587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.4736842105263"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.5587044534413"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.1821862348178"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
@@ -20,22 +20,23 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
@@ -51,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5520" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="446">
   <si>
     <t xml:space="preserve">Store type</t>
   </si>
@@ -2044,9 +2046,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="154.935222672065"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.7611336032389"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="166.704453441296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7327935222672"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,45 +2270,42 @@
   <dimension ref="A1:AF69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A59" activeCellId="0" sqref="A59"/>
-      <selection pane="bottomRight" activeCell="AF69" activeCellId="0" sqref="AF69"/>
+      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="T67" activeCellId="0" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="129.344129554656"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.85020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="122.372469635628"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="76.4412955465587"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.1578947368421"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.3562753036437"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="64.5587044534413"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="202.356275303644"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="61.9271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="56.331983805668"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="33.9352226720648"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.5060728744939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="38.9635627530364"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="28.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="63.6437246963563"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="64.3279352226721"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="41.3603238866397"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="41.8178137651822"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="35.7651821862348"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="57.2429149797571"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="139.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6234817813765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="163.506072874494"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="131.627530364372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="82.2672064777328"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.1578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.4696356275304"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.6194331983806"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="217.781376518219"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.6153846153846"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="60.5587044534413"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="36.4493927125506"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="29.3643724696356"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.4777327935223"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="41.9352226720648"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="30.7368421052632"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="68.4412955465587"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="69.2429149797571"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="44.4453441295547"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="44.9028340080972"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="38.5060728744939"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="61.587044534413"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3032,10 +3030,10 @@
         <v>4607065372217</v>
       </c>
       <c r="R10" s="13"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="T10" s="11"/>
       <c r="U10" s="13"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
@@ -6964,7 +6962,9 @@
         <v>6048</v>
       </c>
       <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
+      <c r="S66" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
       <c r="V66" s="11"/>
@@ -7030,10 +7030,10 @@
         <v>248</v>
       </c>
       <c r="R67" s="11"/>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="T67" s="11"/>
       <c r="U67" s="11"/>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
@@ -7104,10 +7104,10 @@
         <v>4607065739164</v>
       </c>
       <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="T68" s="11"/>
       <c r="U68" s="11"/>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
@@ -7175,10 +7175,10 @@
         <v>254</v>
       </c>
       <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14" t="s">
+      <c r="S69" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
       <c r="W69" s="14"/>
@@ -7196,7 +7196,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE69"/>
+  <autoFilter ref="A1:AE1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7217,41 +7217,38 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AF2" activeCellId="0" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3238866396761"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="85.2388663967611"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.85020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="172.761133603239"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.7327935222672"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.1578947368421"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="65.3562753036437"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="64.5587044534413"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="39.6477732793522"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="54.1578947368421"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="61.9271255060729"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="56.331983805668"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.165991902834"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="38.5060728744939"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="38.9635627530364"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="52.4453441295547"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6234817813765"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.165991902834"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.748987854251"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="163.506072874494"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="186.016194331984"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.6153846153846"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.1578947368421"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.2712550607288"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.4696356275304"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.6194331983806"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.1578947368421"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.6153846153846"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="60.5587044534413"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="29.3643724696356"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.995951417004"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.4777327935223"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="41.9352226720648"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="56.4453441295547"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8561,15 +8558,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.7368421052632"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.744939271255"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="34.0485829959514"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.3076923076923"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="119.744939271255"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="32.336032388664"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="69.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="128.886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6518218623482"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3643724696356"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="128.886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="34.7368421052632"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="74.6113360323887"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27604,10 +27601,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0971659919028"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7611336032389"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29420,9 +29418,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="64.8987854251012"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8137651821862"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29490,9 +29487,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1983805668016"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.4736842105263"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.9028340080972"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29551,10 +29546,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="165.562753036437"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.2186234817814"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7327935222672"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="178.246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2145748987854"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29745,11 +29739,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.5587044534413"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.4736842105263"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.5587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.7854251012146"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.4696356275304"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.8947368421053"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
@@ -20,23 +20,24 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
@@ -53,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2046,8 +2048,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="166.704453441296"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.7327935222672"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="179.388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.0485829959514"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,45 +2270,48 @@
     <tabColor rgb="FF99FF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF69"/>
+  <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="T67" activeCellId="0" sqref="T67"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="AG69" activeCellId="0" sqref="AG69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="139.17004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.6234817813765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="163.506072874494"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="131.627530364372"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="82.2672064777328"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.1578947368421"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.4696356275304"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.6194331983806"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="217.781376518219"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.6153846153846"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="60.5587044534413"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="29.3643724696356"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.4777327935223"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="41.9352226720648"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="30.7368421052632"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="68.4412955465587"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="69.2429149797571"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="44.4453441295547"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="44.9028340080972"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="38.5060728744939"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="61.587044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="149.793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="176.072874493927"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="141.684210526316"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="88.4372469635628"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="75.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="74.7246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="45.9311740890688"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="234.461538461538"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="71.7570850202429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="39.1902834008097"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="31.5344129554656"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="45.0202429149798"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="73.582995951417"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="74.497975708502"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="47.7611336032389"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="48.2186234817814"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="41.4777327935223"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="66.2712550607287"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2472,6 +2478,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E2," - ",I2,"' WHERE type = '",E2,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4264 - Среднее кол-во полок c кормами и лакомствами для кошек на стеллаже' WHERE type = '4264-RUS';</v>
       </c>
+      <c r="AG2" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I2,"' WHERE name = '",E2,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Среднее кол-во полок c кормами и лакомствами для кошек на стеллаже' WHERE name = '4264';</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
@@ -2544,6 +2554,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E3," - ",I3,"' WHERE type = '",E3,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4351 - Среднее кол-во полок c кормами и лакомствами для собак на стеллаже' WHERE type = '4351-RUS';</v>
       </c>
+      <c r="AG3" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I3,"' WHERE name = '",E3,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Среднее кол-во полок c кормами и лакомствами для собак на стеллаже' WHERE name = '4351';</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
@@ -2616,6 +2630,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E4," - ",I4,"' WHERE type = '",E4,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4783 - Укажите колличество стеллажей кошки' WHERE type = '4783-RUS';</v>
       </c>
+      <c r="AG4" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I4,"' WHERE name = '",E4,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите колличество стеллажей кошки' WHERE name = '4783';</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
@@ -2688,6 +2706,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E5," - ",I5,"' WHERE type = '",E5,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4784 - Укажите количество стеллажей собаки' WHERE type = '4784-RUS';</v>
       </c>
+      <c r="AG5" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I5,"' WHERE name = '",E5,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество стеллажей собаки' WHERE name = '4784';</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
@@ -2760,6 +2782,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E6," - ",I6,"' WHERE type = '",E6,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4785 - Укажите количсетво  стеллажей всей категории' WHERE type = '4785-RUS';</v>
       </c>
+      <c r="AG6" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I6,"' WHERE name = '",E6,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количсетво  стеллажей всей категории' WHERE name = '4785';</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
@@ -2832,6 +2858,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E7," - ",I7,"' WHERE type = '",E7,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4268 - Whiskas - Рагу говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4268-RUS';</v>
       </c>
+      <c r="AG7" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I7,"' WHERE name = '",E7,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - Рагу говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4268';</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
@@ -2904,6 +2934,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E8," - ",I8,"' WHERE type = '",E8,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4273 - Whiskas - Желе говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4273-RUS';</v>
       </c>
+      <c r="AG8" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I8,"' WHERE name = '",E8,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - Желе говядина/ягненок 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4273';</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
@@ -2976,6 +3010,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E9," - ",I9,"' WHERE type = '",E9,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4274 - Whiskas - Рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4274-RUS';</v>
       </c>
+      <c r="AG9" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I9,"' WHERE name = '",E9,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - Рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4274';</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
@@ -3049,6 +3087,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E10," - ",I10,"' WHERE type = '",E10,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4276 - Whiskas - Желе курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4276-RUS';</v>
       </c>
+      <c r="AG10" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I10,"' WHERE name = '",E10,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - Желе курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4276';</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -3121,6 +3163,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E11," - ",I11,"' WHERE type = '",E11,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4282 - Kitekat говядина в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4282-RUS';</v>
       </c>
+      <c r="AG11" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I11,"' WHERE name = '",E11,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Kitekat говядина в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4282';</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
@@ -3193,6 +3239,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E12," - ",I12,"' WHERE type = '",E12,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4284 - Kitekat курица в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4284-RUS';</v>
       </c>
+      <c r="AG12" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I12,"' WHERE name = '",E12,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Kitekat курица в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4284';</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -3265,6 +3315,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E13," - ",I13,"' WHERE type = '",E13,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4285 - Kitekat кролик в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4285-RUS';</v>
       </c>
+      <c r="AG13" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I13,"' WHERE name = '",E13,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Kitekat кролик в соусе 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4285';</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -3339,6 +3393,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E14," - ",I14,"' WHERE type = '",E14,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4275 - Sheba - ломтики в соусе с курицей и индейкой 85г [Кол-во гориз-х фэйсов на основной полке]' WHERE type = '4275-RUS';</v>
       </c>
+      <c r="AG14" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I14,"' WHERE name = '",E14,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Sheba - ломтики в соусе с курицей и индейкой 85г [Кол-во гориз-х фэйсов на основной полке]' WHERE name = '4275';</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -3411,6 +3469,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E15," - ",I15,"' WHERE type = '",E15,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4277 - Perfect Fit - для стерил. Кошек с курицей 85г [Кол-во горизонтальных фэйсов на осн. полке]' WHERE type = '4277-RUS';</v>
       </c>
+      <c r="AG15" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I15,"' WHERE name = '",E15,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Perfect Fit - для стерил. Кошек с курицей 85г [Кол-во горизонтальных фэйсов на осн. полке]' WHERE name = '4277';</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -3483,6 +3545,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E16," - ",I16,"' WHERE type = '",E16,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4283 - Pedigree говядина в соусе 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4283-RUS';</v>
       </c>
+      <c r="AG16" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I16,"' WHERE name = '",E16,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Pedigree говядина в соусе 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4283';</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -3557,6 +3623,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E17," - ",I17,"' WHERE type = '",E17,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4510 - Whiskas - для котят рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4510-RUS';</v>
       </c>
+      <c r="AG17" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I17,"' WHERE name = '",E17,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - для котят рагу курица 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4510';</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -3631,6 +3701,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E18," - ",I18,"' WHERE type = '",E18,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4511 - Whiskas - паштет курица/индейка 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '4511-RUS';</v>
       </c>
+      <c r="AG18" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I18,"' WHERE name = '",E18,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas - паштет курица/индейка 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '4511';</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
@@ -3699,6 +3773,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E19," - ",I19,"' WHERE type = '",E19,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4254 - Выберите планограмму в зависимости от фактического размера выкладки Марс' WHERE type = '4254-RUS';</v>
       </c>
+      <c r="AG19" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I19,"' WHERE name = '",E19,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Выберите планограмму в зависимости от фактического размера выкладки Марс' WHERE name = '4254';</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
@@ -3767,6 +3845,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E20," - ",I20,"' WHERE type = '",E20,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4513 - Сум. лин. размер влажн. однопор. кормов Wh pouch мин. на 20% &gt; любого другого премиум бренда' WHERE type = '4513-RUS';</v>
       </c>
+      <c r="AG20" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I20,"' WHERE name = '",E20,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум. лин. размер влажн. однопор. кормов Wh pouch мин. на 20% &gt; любого другого премиум бренда' WHERE name = '4513';</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
@@ -3835,6 +3917,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E21," - ",I21,"' WHERE type = '",E21,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4514 - Сум. лин. размер влажн. однопор. кормов  PFt + Sh  мин на 25% &gt; любого др. суперпрем бренда' WHERE type = '4514-RUS';</v>
       </c>
+      <c r="AG21" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I21,"' WHERE name = '",E21,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум. лин. размер влажн. однопор. кормов  PFt + Sh  мин на 25% &gt; любого др. суперпрем бренда' WHERE name = '4514';</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
@@ -3903,6 +3989,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E22," - ",I22,"' WHERE type = '",E22,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4317 - TOP 12 SKU расположены на полках 3-6 вкл. (для Гипермаркетов - 2-6 вкл)' WHERE type = '4317-RUS';</v>
       </c>
+      <c r="AG22" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I22,"' WHERE name = '",E22,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='TOP 12 SKU расположены на полках 3-6 вкл. (для Гипермаркетов - 2-6 вкл)' WHERE name = '4317';</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
@@ -3974,6 +4064,10 @@
       <c r="AF23" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E23," - ",I23,"' WHERE type = '",E23,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4261 - Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE type = '4261-RUS';</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I23,"' WHERE name = '",E23,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE name = '4261';</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4045,6 +4139,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E24," - ",I24,"' WHERE type = '",E24,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4262 - Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE type = '4262-RUS';</v>
       </c>
+      <c r="AG24" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I24,"' WHERE name = '",E24,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE name = '4262';</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
@@ -4118,6 +4216,10 @@
       <c r="AF25" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E25," - ",I25,"' WHERE type = '",E25,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4263 - В торговой точке присутствует частная марка в категории кошки' WHERE type = '4263-RUS';</v>
+      </c>
+      <c r="AG25" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I25,"' WHERE name = '",E25,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В торговой точке присутствует частная марка в категории кошки' WHERE name = '4263';</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4190,6 +4292,10 @@
       <c r="AF26" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E26," - ",I26,"' WHERE type = '",E26,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4265 - Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4265-RUS';</v>
+      </c>
+      <c r="AG26" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I26,"' WHERE name = '",E26,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE name = '4265';</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4261,6 +4367,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E27," - ",I27,"' WHERE type = '",E27,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4266 - Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4266-RUS';</v>
       </c>
+      <c r="AG27" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I27,"' WHERE name = '",E27,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE name = '4266';</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
@@ -4329,6 +4439,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E28," - ",I28,"' WHERE type = '",E28,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4255 - Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE type = '4255-RUS';</v>
       </c>
+      <c r="AG28" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I28,"' WHERE name = '",E28,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE name = '4255';</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
@@ -4397,6 +4511,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E29," - ",I29,"' WHERE type = '",E29,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4148 - Катег. распол. вне тупика и наход. дальше 3м от входа/выхода и касс зоны (1м для магаз. 100)' WHERE type = '4148-RUS';</v>
       </c>
+      <c r="AG29" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I29,"' WHERE name = '",E29,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Катег. распол. вне тупика и наход. дальше 3м от входа/выхода и касс зоны (1м для магаз. 100)' WHERE name = '4148';</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
@@ -4465,6 +4583,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E30," - ",I30,"' WHERE type = '",E30,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4149 - Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (1)' WHERE type = '4149-RUS';</v>
       </c>
+      <c r="AG30" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I30,"' WHERE name = '",E30,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (1)' WHERE name = '4149';</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
@@ -4533,6 +4655,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E31," - ",I31,"' WHERE type = '",E31,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4150 - Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (2) ' WHERE type = '4150-RUS';</v>
       </c>
+      <c r="AG31" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I31,"' WHERE name = '",E31,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Катег. тов. для жив. примык. или распол. в рад. 3м от центра выкладки приорит. катег. (2) ' WHERE name = '4150';</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
@@ -4607,6 +4733,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E32," - ",I32,"' WHERE type = '",E32,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4267 - В торговой точке присутствует частная марка в категории собаки' WHERE type = '4267-RUS';</v>
       </c>
+      <c r="AG32" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I32,"' WHERE name = '",E32,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В торговой точке присутствует частная марка в категории собаки' WHERE name = '4267';</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
@@ -4680,6 +4810,10 @@
       <c r="AF33" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E33," - ",I33,"' WHERE type = '",E33,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4305 - Бренд-блок Whiskas - самый большой в категории' WHERE type = '4305-RUS';</v>
+      </c>
+      <c r="AG33" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I33,"' WHERE name = '",E33,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Бренд-блок Whiskas - самый большой в категории' WHERE name = '4305';</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4750,6 +4884,10 @@
       <c r="AF34" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E34," - ",I34,"' WHERE type = '",E34,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4306 - Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE type = '4306-RUS';</v>
+      </c>
+      <c r="AG34" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I34,"' WHERE name = '",E34,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE name = '4306';</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4819,6 +4957,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E35," - ",I35,"' WHERE type = '",E35,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4191 - ЕстьЦА: Кат выстр либо в ед линию, либо в две линии строго др. напр. др. (лицом др к др)' WHERE type = '4191-RUS';</v>
       </c>
+      <c r="AG35" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I35,"' WHERE name = '",E35,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='ЕстьЦА: Кат выстр либо в ед линию, либо в две линии строго др. напр. др. (лицом др к др)' WHERE name = '4191';</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
@@ -4887,6 +5029,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E36," - ",I36,"' WHERE type = '",E36,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4688 - В магазине есть центральная аллея (ЦА)' WHERE type = '4688-RUS';</v>
       </c>
+      <c r="AG36" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I36,"' WHERE name = '",E36,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В магазине есть центральная аллея (ЦА)' WHERE name = '4688';</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
@@ -4955,6 +5101,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E37," - ",I37,"' WHERE type = '",E37,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4256 - ЕстьЦА: Катег тов д/жив примык к ЦНТР АЛ, виз-но доступна покуп-лю по ходу движ' WHERE type = '4256-RUS';</v>
       </c>
+      <c r="AG37" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I37,"' WHERE name = '",E37,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='ЕстьЦА: Катег тов д/жив примык к ЦНТР АЛ, виз-но доступна покуп-лю по ходу движ' WHERE name = '4256';</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
@@ -5023,6 +5173,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E38," - ",I38,"' WHERE type = '",E38,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4219 - ЕстьЦА: Катег тов д/жив примык к ПРОМО АЛ виз-но доступна покуп-лю и наход-ся &gt;5м от входа' WHERE type = '4219-RUS';</v>
       </c>
+      <c r="AG38" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I38,"' WHERE name = '",E38,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='ЕстьЦА: Катег тов д/жив примык к ПРОМО АЛ виз-но доступна покуп-лю и наход-ся &gt;5м от входа' WHERE name = '4219';</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
@@ -5091,6 +5245,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E39," - ",I39,"' WHERE type = '",E39,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4307 - Ассорт для Кот/Щен и Senior сгруп (сух и влаж) распол внутри соответст бренд-блоков' WHERE type = '4307-RUS';</v>
       </c>
+      <c r="AG39" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I39,"' WHERE name = '",E39,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Ассорт для Кот/Щен и Senior сгруп (сух и влаж) распол внутри соответст бренд-блоков' WHERE name = '4307';</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
@@ -5161,6 +5319,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E40," - ",I40,"' WHERE type = '",E40,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4315 - Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WH-PF -SH, NT, SH трэй  ' WHERE type = '4315-RUS';</v>
       </c>
+      <c r="AG40" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I40,"' WHERE name = '",E40,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WH-PF -SH, NT, SH трэй  ' WHERE name = '4315';</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="11"/>
@@ -5229,6 +5391,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E41," - ",I41,"' WHERE type = '",E41,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4318 - В наличии ценники для каждого SKU' WHERE type = '4318-RUS';</v>
       </c>
+      <c r="AG41" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I41,"' WHERE name = '",E41,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В наличии ценники для каждого SKU' WHERE name = '4318';</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
@@ -5299,6 +5465,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E42," - ",I42,"' WHERE type = '",E42,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4512 - Сум лин размер влажных однопорц корм KEK pouch мин на 50% &gt; любого бренда в эконом паучах' WHERE type = '4512-RUS';</v>
       </c>
+      <c r="AG42" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I42,"' WHERE name = '",E42,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум лин размер влажных однопорц корм KEK pouch мин на 50% &gt; любого бренда в эконом паучах' WHERE name = '4512';</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
@@ -5367,6 +5537,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E43," - ",I43,"' WHERE type = '",E43,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4515 - Выкладка Mars Dogs не меньше 15% от общей выкладки Mars' WHERE type = '4515-RUS';</v>
       </c>
+      <c r="AG43" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I43,"' WHERE name = '",E43,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Выкладка Mars Dogs не меньше 15% от общей выкладки Mars' WHERE name = '4515';</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
@@ -5437,6 +5611,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E44," - ",I44,"' WHERE type = '",E44,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4316 - Вык Апп. Микс с 1-й стороны сосед с Wh pouch, с др - с PF pouch, либо Sh mini, либо Fel' WHERE type = '4316-RUS';</v>
       </c>
+      <c r="AG44" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I44,"' WHERE name = '",E44,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Вык Апп. Микс с 1-й стороны сосед с Wh pouch, с др - с PF pouch, либо Sh mini, либо Fel' WHERE name = '4316';</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
@@ -5505,6 +5683,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E45," - ",I45,"' WHERE type = '",E45,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='90003 - В магазине есть ДМП' WHERE type = '90003-RUS';</v>
       </c>
+      <c r="AG45" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I45,"' WHERE name = '",E45,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В магазине есть ДМП' WHERE name = '90003';</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11"/>
@@ -5575,6 +5757,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E46," - ",I46,"' WHERE type = '",E46,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='2527 - Количество сцен ДМП Nestle' WHERE type = '2527-RUS';</v>
       </c>
+      <c r="AG46" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I46,"' WHERE name = '",E46,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Количество сцен ДМП Nestle' WHERE name = '2527';</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11"/>
@@ -5649,6 +5835,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E47," - ",I47,"' WHERE type = '",E47,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4697 - Укажите количество навесок с лакомствами для кошек' WHERE type = '4697-RUS';</v>
       </c>
+      <c r="AG47" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I47,"' WHERE name = '",E47,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество навесок с лакомствами для кошек' WHERE name = '4697';</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11"/>
@@ -5723,6 +5913,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E48," - ",I48,"' WHERE type = '",E48,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4698 - Укажите количество навесок с лакомствами для собак' WHERE type = '4698-RUS';</v>
       </c>
+      <c r="AG48" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I48,"' WHERE name = '",E48,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество навесок с лакомствами для собак' WHERE name = '4698';</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="11"/>
@@ -5797,6 +5991,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E49," - ",I49,"' WHERE type = '",E49,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4630 - В тт есть выделен секция лакомств для кошек и/или собак с присутст  на ней прод Марс' WHERE type = '4630-RUS';</v>
       </c>
+      <c r="AG49" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I49,"' WHERE name = '",E49,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В тт есть выделен секция лакомств для кошек и/или собак с присутст  на ней прод Марс' WHERE name = '4630';</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11"/>
@@ -5870,6 +6068,10 @@
       <c r="AF50" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E50," - ",I50,"' WHERE type = '",E50,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4631 - В тт В ПРИЛЕГ К КАС ЗОНЕ присутт лаком для кош и/или соб Марс' WHERE type = '4631-RUS';</v>
+      </c>
+      <c r="AG50" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I50,"' WHERE name = '",E50,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В тт В ПРИЛЕГ К КАС ЗОНЕ присутт лаком для кош и/или соб Марс' WHERE name = '4631';</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5939,6 +6141,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E51," - ",I51,"' WHERE type = '",E51,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4601 - НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (1)' WHERE type = '4601-RUS';</v>
       </c>
+      <c r="AG51" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I51,"' WHERE name = '",E51,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (1)' WHERE name = '4601';</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11"/>
@@ -6007,6 +6213,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E52," - ",I52,"' WHERE type = '",E52,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4602 - НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (2)' WHERE type = '4602-RUS';</v>
       </c>
+      <c r="AG52" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I52,"' WHERE name = '",E52,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='НетЦА: Катег. тов д/жив примык или распол в рад 5м от центра выкл приор катег (2)' WHERE name = '4602';</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="11"/>
@@ -6075,6 +6285,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E53," - ",I53,"' WHERE type = '",E53,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4603 - НетЦА: Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE type = '4603-RUS';</v>
       </c>
+      <c r="AG53" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I53,"' WHERE name = '",E53,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='НетЦА: Категория выстроена в единую линию единым блоком или образует внутренний угол' WHERE name = '4603';</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11"/>
@@ -6142,6 +6356,10 @@
       <c r="AF54" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E54," - ",I54,"' WHERE type = '",E54,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4604 - НетЦА: Катег распол вне тупика и находится дальше 5м от входа/выхода и кассовой зоны' WHERE type = '4604-RUS';</v>
+      </c>
+      <c r="AG54" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I54,"' WHERE name = '",E54,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='НетЦА: Катег распол вне тупика и находится дальше 5м от входа/выхода и кассовой зоны' WHERE name = '4604';</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6209,6 +6427,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E55," - ",I55,"' WHERE type = '",E55,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='5070 - Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух' WHERE type = '5070-RUS';</v>
       </c>
+      <c r="AG55" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I55,"' WHERE name = '",E55,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Секц лаком д/кош прим к корм д/кош и лаком д/соб к корм д/соб. Допуск разм между влаж и сух' WHERE name = '5070';</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
@@ -6281,6 +6503,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E56," - ",I56,"' WHERE type = '",E56,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='5032 - PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5032-RUS';</v>
       </c>
+      <c r="AG56" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I56,"' WHERE name = '",E56,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='PERFECT FIT вз.кош чувст инд 24*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '5032';</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="11" t="s">
@@ -6355,6 +6581,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E57," - ",I57,"' WHERE type = '",E57,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='5033 - Sheba - ломтики в соусе с телят. и яз. 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5033-RUS';</v>
       </c>
+      <c r="AG57" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I57,"' WHERE name = '",E57,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Sheba - ломтики в соусе с телят. и яз. 85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '5033';</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
@@ -6427,6 +6657,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E58," - ",I58,"' WHERE type = '",E58,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='5034 - Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5034-RUS';</v>
       </c>
+      <c r="AG58" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I58,"' WHERE name = '",E58,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Cesar гов. с овощами 100г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '5034';</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
@@ -6499,6 +6733,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E59," - ",I59,"' WHERE type = '",E59,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1010 - Сум раз выклад Др произ (в м) на всех полках для кат кош (вкл лаком на осн полке БЕЗ Liter)' WHERE type = '1010-RUS';</v>
       </c>
+      <c r="AG59" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I59,"' WHERE name = '",E59,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум раз выклад Др произ (в м) на всех полках для кат кош (вкл лаком на осн полке БЕЗ Liter)' WHERE name = '1010';</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
@@ -6570,6 +6808,10 @@
       <c r="AF60" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E60," - ",I60,"' WHERE type = '",E60,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1011 - Сум раз выклад Др произ (в м) на всех полках для кат соб (вкл лаком на осн полке)' WHERE type = '1011-RUS';</v>
+      </c>
+      <c r="AG60" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I60,"' WHERE name = '",E60,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум раз выклад Др произ (в м) на всех полках для кат соб (вкл лаком на осн полке)' WHERE name = '1011';</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6635,6 +6877,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E61," - ",I61,"' WHERE type = '",E61,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1013 - Доля полки Других производителей' WHERE type = '1013-RUS';</v>
       </c>
+      <c r="AG61" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I61,"' WHERE name = '",E61,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Доля полки Других производителей' WHERE name = '1013';</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
@@ -6709,6 +6955,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E62," - ",I62,"' WHERE type = '",E62,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1012 - Укажите количество SKU Другие производители' WHERE type = '1012-RUS';</v>
       </c>
+      <c r="AG62" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I62,"' WHERE name = '",E62,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество SKU Другие производители' WHERE name = '1012';</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="11"/>
@@ -6782,6 +7032,10 @@
       <c r="AF63" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E63," - ",I63,"' WHERE type = '",E63,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1014 - Укажите количество SKU MARS' WHERE type = '1014-RUS';</v>
+      </c>
+      <c r="AG63" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I63,"' WHERE name = '",E63,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество SKU MARS' WHERE name = '1014';</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6847,6 +7101,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E64," - ",I64,"' WHERE type = '",E64,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1015 - Доля ассортимента  Других производителей' WHERE type = '1015-RUS';</v>
       </c>
+      <c r="AG64" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I64,"' WHERE name = '",E64,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Доля ассортимента  Других производителей' WHERE name = '1015';</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
@@ -6911,6 +7169,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E65," - ",I65,"' WHERE type = '",E65,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='1016 - PSS Другие производители' WHERE type = '1016-RUS';</v>
       </c>
+      <c r="AG65" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I65,"' WHERE name = '",E65,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='PSS Другие производители' WHERE name = '1016';</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
@@ -6981,6 +7243,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E66," - ",I66,"' WHERE type = '",E66,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='6048 - Влаж.корма Марс внутри выкл. кошек в порядке: Whs Pch - PFit - Shb Pch - N&amp;T' WHERE type = '6048-RUS';</v>
       </c>
+      <c r="AG66" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I66,"' WHERE name = '",E66,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Влаж.корма Марс внутри выкл. кошек в порядке: Whs Pch - PFit - Shb Pch - N&amp;T' WHERE name = '6048';</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
@@ -7049,6 +7315,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E67," - ",I67,"' WHERE type = '",E67,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='6049 - Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак' WHERE type = '6049-RUS';</v>
       </c>
+      <c r="AG67" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I67,"' WHERE name = '",E67,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум.лин.разм. влаж.однопорц.корм. CesarPch на 100% &gt; люб.бренда в суп.прем.влаж.корм.собак' WHERE name = '6049';</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
@@ -7123,6 +7393,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E68," - ",I68,"' WHERE type = '",E68,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='5036 - Whiskas Meaty говядина 28*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE type = '5036-RUS';</v>
       </c>
+      <c r="AG68" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I68,"' WHERE name = '",E68,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas Meaty говядина 28*85г [Кол-во горизонтальных фэйсов на основной полке]' WHERE name = '5036';</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
@@ -7194,9 +7468,13 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E69," - ",I69,"' WHERE type = '",E69,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='6070 - Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках' WHERE type = '6070-RUS';</v>
       </c>
+      <c r="AG69" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I69,"' WHERE name = '",E69,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер Sh + PF + Cesar + N&amp;T + Dreamies + С&amp;T Pedegree (в метрах) на всех полках' WHERE name = '6070';</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AE69"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7214,41 +7492,44 @@
     <tabColor rgb="FFFFFF66"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="topRight" activeCell="AE1" activeCellId="0" sqref="AE1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF2" activeCellId="0" sqref="AF2"/>
+      <selection pane="bottomRight" activeCell="AG2" activeCellId="0" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6234817813765"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="21.3684210526316"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.165991902834"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="91.748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4817813765182"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="163.506072874494"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="186.016194331984"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.6153846153846"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.1578947368421"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.2712550607288"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="69.4696356275304"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.6194331983806"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="58.1578947368421"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="66.6153846153846"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="60.5587044534413"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="32.336032388664"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="29.3643724696356"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.995951417004"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.4777327935223"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="41.9352226720648"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="36.9068825910931"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="56.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.9676113360324"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="98.7206477732794"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.3076923076923"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="176.072874493927"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="200.182186234818"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="58.8421052631579"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.587044534413"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.502024291498"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="75.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="74.7246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="45.9311740890688"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="62.502024291498"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="71.7570850202429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="34.7368421052632"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="31.5344129554656"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="44.5627530364373"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="45.0202429149798"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="39.6477732793522"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="60.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7419,6 +7700,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E2," - ",I2,"' WHERE type = '",E2,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4697 - Укажите количество навесок с лакомствами для кошек' WHERE type = '4697-RUS';</v>
       </c>
+      <c r="AG2" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I2,"' WHERE name = '",E2,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество навесок с лакомствами для кошек' WHERE name = '4697';</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11"/>
@@ -7492,6 +7777,10 @@
       <c r="AF3" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E3," - ",I3,"' WHERE type = '",E3,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4698 - Укажите количество навесок с лакомствами для собак' WHERE type = '4698-RUS';</v>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I3,"' WHERE name = '",E3,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Укажите количество навесок с лакомствами для собак' WHERE name = '4698';</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7561,6 +7850,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E4," - ",I4,"' WHERE type = '",E4,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4259 - Кат кормов разм в 1 зале по ходу движ покуп Drog SS или в рад 3 м от места расчета Drog BTC' WHERE type = '4259-RUS';</v>
       </c>
+      <c r="AG4" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I4,"' WHERE name = '",E4,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Кат кормов разм в 1 зале по ходу движ покуп Drog SS или в рад 3 м от места расчета Drog BTC' WHERE name = '4259';</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
@@ -7629,6 +7922,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E5," - ",I5,"' WHERE type = '",E5,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4200 - Кат корм прим или наход в рад 3 м от центра выкл одной из приор категории' WHERE type = '4200-RUS';</v>
       </c>
+      <c r="AG5" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I5,"' WHERE name = '",E5,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Кат корм прим или наход в рад 3 м от центра выкл одной из приор категории' WHERE name = '4200';</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
@@ -7697,6 +7994,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E6," - ",I6,"' WHERE type = '",E6,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4260 - Категория располагается вне тупика и находится дальше 3м от входа/выхода' WHERE type = '4260-RUS';</v>
       </c>
+      <c r="AG6" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I6,"' WHERE name = '",E6,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Категория располагается вне тупика и находится дальше 3м от входа/выхода' WHERE name = '4260';</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
@@ -7768,6 +8069,10 @@
       <c r="AF7" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E7," - ",I7,"' WHERE type = '",E7,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4269 - Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE type = '4269-RUS';</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I7,"' WHERE name = '",E7,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер МАРС катег. кошки (в метрах) на всех полках (вкл лаком на осн полке, БЕЗ Catsan)' WHERE name = '4269';</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7839,6 +8144,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E8," - ",I8,"' WHERE type = '",E8,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4270 - Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE type = '4270-RUS';</v>
       </c>
+      <c r="AG8" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I8,"' WHERE name = '",E8,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер всей катег. кошки (в метрах) на всех полках(вк лаком на осн полке, БЕЗ liter)' WHERE name = '4270';</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
@@ -7910,6 +8219,10 @@
       <c r="AF9" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E9," - ",I9,"' WHERE type = '",E9,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4271 - Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4271-RUS';</v>
+      </c>
+      <c r="AG9" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I9,"' WHERE name = '",E9,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер МАРС катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE name = '4271';</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7981,6 +8294,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E10," - ",I10,"' WHERE type = '",E10,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4272 - Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE type = '4272-RUS';</v>
       </c>
+      <c r="AG10" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I10,"' WHERE name = '",E10,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Сум размер всей катег. собаки (в метрах) на всех полках (вкл лаком на осн полке)' WHERE name = '4272';</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -8054,6 +8371,10 @@
       <c r="AF11" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E11," - ",I11,"' WHERE type = '",E11,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4358 - В торговой точке присутствует хотя бы 1 линия кормов Марс' WHERE type = '4358-RUS';</v>
+      </c>
+      <c r="AG11" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I11,"' WHERE name = '",E11,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В торговой точке присутствует хотя бы 1 линия кормов Марс' WHERE name = '4358';</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8123,6 +8444,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E12," - ",I12,"' WHERE type = '",E12,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4636 - В тт есть ДМП Марс (с cat пауч + лаком) в прикас зоне или в приоритетной категории' WHERE type = '4636-RUS';</v>
       </c>
+      <c r="AG12" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I12,"' WHERE name = '",E12,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В тт есть ДМП Марс (с cat пауч + лаком) в прикас зоне или в приоритетной категории' WHERE name = '4636';</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -8191,6 +8516,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E13," - ",I13,"' WHERE type = '",E13,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4647 - Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE type = '4647-RUS';</v>
       </c>
+      <c r="AG13" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I13,"' WHERE name = '",E13,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Выклад. МАРС верт. бренд-блоками, прямоуг., с четким раздел. на типы прод. (сух/влаж)' WHERE name = '4647';</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
@@ -8259,6 +8588,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E14," - ",I14,"' WHERE type = '",E14,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4648 - Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WHсPF -SH, NT, SH трэй ' WHERE type = '4648-RUS';</v>
       </c>
+      <c r="AG14" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I14,"' WHERE name = '",E14,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Влажн Марс внутри выкладки кош и распол в след порядке: KEK-WHсPF -SH, NT, SH трэй ' WHERE name = '4648';</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -8327,6 +8660,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E15," - ",I15,"' WHERE type = '",E15,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4649 - Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком' WHERE type = '4649-RUS';</v>
       </c>
+      <c r="AG15" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I15,"' WHERE name = '",E15,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Whiskas и Kitekat pouch располагаются рядом - единым неразрывным блоком' WHERE name = '4649';</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -8397,6 +8734,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E16," - ",I16,"' WHERE type = '",E16,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4650 - TOP 12 SKU расположены в соответствии с планограммой: с 3 полки по 6-ю включительно' WHERE type = '4650-RUS';</v>
       </c>
+      <c r="AG16" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I16,"' WHERE name = '",E16,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='TOP 12 SKU расположены в соответствии с планограммой: с 3 полки по 6-ю включительно' WHERE name = '4650';</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
@@ -8465,6 +8806,10 @@
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E17," - ",I17,"' WHERE type = '",E17,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4651 - Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков' WHERE type = '4651-RUS';</v>
       </c>
+      <c r="AG17" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I17,"' WHERE name = '",E17,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков' WHERE name = '4651';</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
@@ -8530,6 +8875,10 @@
       <c r="AF18" s="0" t="str">
         <f aca="false">CONCATENATE("UPDATE static.kpi_level_2 SET client_name ='",E18," - ",I18,"' WHERE type = '",E18,"-RUS';")</f>
         <v>UPDATE static.kpi_level_2 SET client_name ='4704 - В магазине тип выкладки А' WHERE type = '4704-RUS';</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <f aca="false">CONCATENATE("UPDATE static.atomic_kpi SET display_text ='",I18,"' WHERE name = '",E18,"';")</f>
+        <v>UPDATE static.atomic_kpi SET display_text ='В магазине тип выкладки А' WHERE name = '4704';</v>
       </c>
     </row>
   </sheetData>
@@ -8558,15 +8907,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="128.886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.5627530364373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.6518218623482"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3643724696356"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="128.886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="34.7368421052632"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="74.6113360323887"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="138.712550607287"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="39.3036437246964"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.5344129554656"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="138.712550607287"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="37.3643724696356"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="80.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27601,11 +27950,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.7611336032389"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.2226720647773"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="88.0931174089069"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29418,8 +29767,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="72.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8137651821862"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.6963562753036"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29487,7 +29837,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.9028340080972"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.5587044534413"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29546,9 +29898,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.7327935222672"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="178.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.2145748987854"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.0485829959514"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="191.842105263158"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29739,10 +30092,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.7854251012146"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.4696356275304"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="80.8947368421053"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="65.3562753036437"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.7246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
@@ -20,26 +20,29 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
@@ -59,6 +62,9 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5521" uniqueCount="447">
   <si>
     <t xml:space="preserve">Store type</t>
   </si>
@@ -425,8 +431,8 @@
     <t xml:space="preserve">TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">sub_category: WET. brand_name: Whiskas. exclude product_fk: 673,674,675,676
-sub_category: WET. brand_name: Felix
+    <t xml:space="preserve">Client Sub Category Name: WET. brand_name: Whiskas. exclude product_fk: 673,674,675,676
+Client Sub Category Name: WET. brand_name: Felix
 1.2</t>
   </si>
   <si>
@@ -436,8 +442,8 @@
     <t xml:space="preserve">To return true if total linear length of WET POUCHES PF+SHEBA &gt;= 125%*any of list of brands {Gourmet}</t>
   </si>
   <si>
-    <t xml:space="preserve">sub_category: WET. brand_name: Perfect Fit, Sheba
-sub_category: WET. brand_name: Gourmet
+    <t xml:space="preserve">Client Sub Category Name: WET. brand_name: Perfect Fit, Sheba
+Client Sub Category Name: WET. brand_name: Gourmet
 1.25</t>
   </si>
   <si>
@@ -612,112 +618,112 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Friskies
+    <t xml:space="preserve">Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Friskies
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: TomCat
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: TomCat
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Lenta
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Lenta
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Katty
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Katty
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Darsy
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Darsy
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Kotoffski
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Kotoffski
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Chammy
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Chammy
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: 365 Days
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: 365 Days
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: OKEY
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: OKEY
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: To Chto Nado
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: To Chto Nado
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: ARO
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: ARO
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Every Day
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Every Day
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Lapka
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Lapka
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Krugliy God
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Krugliy God
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Tafi
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Tafi
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Red Price
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Red Price
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: BBCat
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: BBCat
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Dingo
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Dingo
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Winner
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Winner
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Cat Club
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Cat Club
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Murchik
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Murchik
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Tomas
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Tomas
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Pay less live better
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Pay less live better
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Cat Food
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Cat Food
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Your Choice
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Your Choice
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Gamma
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Gamma
 1.5
 OR
-sub_category: WET. brand_name: Kitekat
-sub_category: WET. brand_name: Cat step
+Client Sub Category Name: WET. brand_name: Kitekat
+Client Sub Category Name: WET. brand_name: Cat step
 1.5</t>
   </si>
   <si>
@@ -751,13 +757,13 @@
                                 "4607065739201","4607065739188","4607065739140","4607065739164"]}],
 "neighbor_1": [{"brand_name":["Whiskas"], "form_factor":["POUCH","Pouch","pouch"]}],
 "neighbor_2": [{"brand_name":["Perfect Fit","Sheba"], "form_factor":["POUCH","Pouch","pouch"]},
-               {"brand_name":["Felix","Gourmet"], "sub_category":["WET"]}]
+               {"brand_name":["Felix","Gourmet"], "Client Sub Category Name":["WET"]}]
 },
 {
 "core": [{"product_ean_code":["4607065739201","4607065739188","4607065739140","4607065739164"]}],
 "neighbor_1": [{"brand_name":["Whiskas"], "form_factor":["POUCH","Pouch","pouch"]}],
 "neighbor_2": [{"brand_name":["Perfect Fit","Sheba"], "form_factor":["POUCH","Pouch","pouch"]},
-               {"brand_name":["Felix","Gourmet"], "sub_category":["WET"]}]
+               {"brand_name":["Felix","Gourmet"], "Client Sub Category Name":["WET"]}]
 }
 ]</t>
   </si>
@@ -969,7 +975,7 @@
   </si>
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Cesar
-sub_category: WET. brand_name: Purina One
+Client Sub Category Name: WET. brand_name: Purina One
 2.0</t>
   </si>
   <si>
@@ -990,7 +996,7 @@
   <si>
     <t xml:space="preserve">[
 {"brand_name": ["Sheba","Perfect Fit","Cesar","NATURE'S TABLE","Dreamies"]},
-{"brand_name":["Pedigree"],"sub_category":["C&amp;T"]}
+{"brand_name":["Pedigree"],"Client Sub Category Name":["C&amp;T"]}
 ]</t>
   </si>
   <si>
@@ -1055,6 +1061,474 @@
 3) If there are more than 1 scene, then we need SKU to be on a golden shelf at least on 1 scene.
 4) We need at least 1 facing of each SKU to be on a golden shelf to pass, not all of them.
 5) For not specified store-types the KPI fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4607065003999
+4607065004118
+4607065004019
+5000159438698
+4607065372217
+4607065003838
+4607065375966
+4011100157361
+4607065376000
+4607065376062
+5000159373111
+5000159438940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тип выкладки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В магазине тип выкладки А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If (((4269+4271)/(4270+4272))*100%)&gt;= 100% then True
+Meaning if there is only SKU Mars then True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf length FROM INCLUDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf length TO EXCLUDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-й Кластер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 6м (линейн) Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4265+4261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 6м (линейн) Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 6м (линейн) Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 6м (линейн) Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-й Кластер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 6м (линейн) Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-й Кластер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 6м (линейн) Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-й Кластер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 6м (линейн) Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 6м (линейн) Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 6м (линейн) Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 6м (линейн) Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 6м (линейн) Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 6м (линейн) Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 6м (линейн) Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 6м (линейн) Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 6м (линейн) Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 6м (линейн) Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 1,6м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=0&lt;1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4261/4264)+(4265/4351)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 1,6м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 1,6м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 1,6м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 1,6м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 1,6м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 1,6м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 1,6м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 1,6м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=1.6&lt;2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,3м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=2.3&lt;2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,3м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,3м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,3м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,3м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,3м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,3м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,3м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,3м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,8м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,8м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,8м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=2.8&lt;3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 3,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=3.8&lt;5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 3,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 3,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 3,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 3,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 3,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.5м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=5&lt;7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл.5м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.5м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.5м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл.5м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.5м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.7м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл.7м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.7м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=7&lt;10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.7м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 7м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.7м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.  10 м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;=10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 10 м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 10 м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 1,6м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 1,6м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 1,6м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,3м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,3м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,3м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,8м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 3,8м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 3,8м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.5м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.5м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.7м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.7м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 10 м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.  10 м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 1,6м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 1,6м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 1,6м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,3м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,3м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,3м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 2,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 2,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 2,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл. 3,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл. 3,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл. 3,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.5м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл.5м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.5м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 кл.7м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 кл.7м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 кл.7м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 1,6м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,3м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 2,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 3,8м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.5м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл.7м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPI result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelf # from the bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKU List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4317_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4317_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 0,6м Маг. у дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 0,6м Супермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 0,6м Гипермаркет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4317_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 кл. 0,6м Супермаркет Премиум </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAN</t>
   </si>
   <si>
     <t xml:space="preserve">4607065003999,
@@ -1069,460 +1543,6 @@
 4607065376062,
 5000159373111,
 5000159438940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ассорт для Кот/Щен и Senior сгруп (сух/влаж) С распол внутр соответс бренд блоков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тип выкладки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В магазине тип выкладки А</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If (((4269+4271)/(4270+4272))*100%)&gt;= 100% then True
-Meaning if there is only SKU Mars then True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf length FROM INCLUDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf length TO EXCLUDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Length condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-й Кластер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 6м (линейн) Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4265+4261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 6м (линейн) Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 6м (линейн) Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 6м (линейн) Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-й Кластер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 6м (линейн) Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-й Кластер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 6м (линейн) Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-й Кластер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 6м (линейн) Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 6м (линейн) Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 6м (линейн) Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 6м (линейн) Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 6м (линейн) Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 6м (линейн) Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 6м (линейн) Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 6м (линейн) Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 6м (линейн) Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 6м (линейн) Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 1,6м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=0&lt;1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4261/4264)+(4265/4351)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 1,6м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 1,6м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 1,6м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 1,6м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 1,6м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 1,6м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 1,6м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 1,6м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=1.6&lt;2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,3м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=2.3&lt;2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,3м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,3м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,3м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,3м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,3м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,3м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,3м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,3м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,8м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=2.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,8м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,8м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=2.8&lt;3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 3,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=3.8&lt;5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 3,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 3,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 3,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 3,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 3,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.5м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=5&lt;7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл.5м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.5м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.5м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл.5м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.5м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.7м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл.7м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.7м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=7&lt;10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.7м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 7м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.7м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.  10 м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;=10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 10 м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 10 м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 1,6м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 1,6м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 1,6м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,3м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,3м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,3м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,8м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 3,8м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 3,8м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.5м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.5м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.7м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.7м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 10 м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.  10 м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 1,6м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 1,6м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 1,6м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,3м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,3м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,3м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 2,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 2,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 2,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл. 3,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл. 3,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл. 3,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.5м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл.5м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.5м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 кл.7м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 кл.7м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 кл.7м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 1,6м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,3м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 2,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 3,8м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.5м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл.7м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPI result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf # from the bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKU List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4317_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4317_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 0,6м Маг. у дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 0,6м Супермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 0,6м Гипермаркет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4317_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 кл. 0,6м Супермаркет Премиум </t>
-  </si>
-  <si>
-    <t xml:space="preserve">All stores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAN</t>
   </si>
   <si>
     <t xml:space="preserve">4607065003999,
@@ -2066,9 +2086,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="207.724696356275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.1295546558704"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="259.028340080972"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.0404858299595"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2291,45 +2311,43 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q51" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
-      <selection pane="bottomRight" activeCell="Q44" activeCellId="0" sqref="Q44"/>
+      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="Q67" activeCellId="0" sqref="Q67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="173.562753036437"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1093117408907"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="204.068825910931"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="164.076923076923"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="102.48987854251"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="66.6153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.4412955465587"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="87.4089068825911"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="86.6072874493927"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="53.0161943319838"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.38056680161943"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="83.0688259109312"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="75.2955465587045"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="45.246963562753"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="38.3927125506073"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="85.2388663967611"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="86.1538461538462"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="55.3036437246964"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="55.7570850202429"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="47.8744939271255"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="76.7813765182186"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1943319838057"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="254.570850202429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="204.63967611336"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="127.627530364372"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="83.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="90.1497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="108.777327935223"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="107.862348178138"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="65.9271255060729"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.6720647773279"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="49.587044534413"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="93.8056680161943"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="56.331983805668"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="64.2145748987854"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="64.8987854251012"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="47.7611336032389"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="106.145748987854"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="107.404858299595"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="69.0121457489879"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="69.4696356275304"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="59.6437246963563"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="95.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7492,7 +7510,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE69"/>
+  <autoFilter ref="A1:AE1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7513,41 +7531,41 @@
   <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG2" activeCellId="0" sqref="AG2"/>
+      <selection pane="bottomRight" activeCell="Q2" activeCellId="0" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.080971659919"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="26.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3967611336032"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="114.145748987854"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.5344129554656"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="204.068825910931"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="231.947368421053"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="68.0971659919028"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="66.6153846153846"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="72.4412955465587"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="87.4089068825911"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="86.6072874493927"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="53.0161943319838"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="72.4412955465587"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="83.0688259109312"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="75.2955465587045"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="40.1052631578947"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.7651821862348"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="51.5303643724696"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="52.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="45.9311740890688"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="70.1538461538462"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6801619433198"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7651821862348"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="142.137651821862"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1902834008097"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="254.570850202429"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.76923076923077"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="84.7813765182186"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="83.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="90.1497975708502"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="108.777327935223"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="107.862348178138"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="65.9271255060729"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="90.1497975708502"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="103.518218623482"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="93.8056680161943"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="49.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="64.2145748987854"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="64.8987854251012"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="57.0161943319838"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="87.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8925,14 +8943,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.3603238866397"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="160.647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="45.3603238866397"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.4493927125506"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="160.647773279352"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="43.0769230769231"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="92.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="200.2995951417"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="56.4453441295547"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="200.2995951417"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="115.744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27967,11 +27986,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="23.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="57.587044534413"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.4736842105263"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="102.032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.7570850202429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.4736842105263"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="127.056680161943"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29784,9 +29803,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.089068825911"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.31983805668"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29854,9 +29873,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.7854251012146"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29872,7 +29891,7 @@
         <v>415</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>273</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="154.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29880,7 +29899,7 @@
         <v>417</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="182.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29888,7 +29907,7 @@
         <v>421</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -29915,21 +29934,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1295546558704"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="222.348178137652"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.9271255060729"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.0404858299595"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.0647773279352"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29937,7 +29956,7 @@
         <v>10011</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C2" s="42" t="n">
         <v>20011</v>
@@ -29948,7 +29967,7 @@
         <v>10011</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C3" s="42" t="n">
         <v>30011</v>
@@ -29959,7 +29978,7 @@
         <v>10011</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C4" s="42" t="n">
         <v>31011</v>
@@ -29970,7 +29989,7 @@
         <v>10011</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C5" s="42" t="n">
         <f aca="false">C4+1</f>
@@ -29982,7 +30001,7 @@
         <v>10011</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C6" s="42" t="n">
         <f aca="false">C5+1</f>
@@ -29994,7 +30013,7 @@
         <v>10011</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C7" s="42" t="n">
         <f aca="false">C6+1</f>
@@ -30006,7 +30025,7 @@
         <v>10011</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C8" s="42" t="n">
         <f aca="false">C7+1</f>
@@ -30018,7 +30037,7 @@
         <v>10013</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C9" s="42" t="n">
         <f aca="false">C8+1</f>
@@ -30030,7 +30049,7 @@
         <v>10013</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C10" s="42" t="n">
         <f aca="false">C9+1</f>
@@ -30042,7 +30061,7 @@
         <v>10013</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C11" s="42" t="n">
         <f aca="false">C10+1</f>
@@ -30054,7 +30073,7 @@
         <v>10013</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C12" s="42" t="n">
         <f aca="false">C11+1</f>
@@ -30066,7 +30085,7 @@
         <v>10013</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" s="42" t="n">
         <f aca="false">C12+1</f>
@@ -30078,7 +30097,7 @@
         <v>10013</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C14" s="42" t="n">
         <f aca="false">C13+1</f>
@@ -30109,25 +30128,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="75.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.0121457489879"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.6072874493927"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.777327935223"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.0364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.9797570850202"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.862348178138"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="125.570850202429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="34" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
+++ b/Projects/MARSRU_PROD/Data/2020_06_14/MARS KPIs.xlsx
@@ -20,29 +20,30 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$69</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
@@ -65,6 +66,7 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AE$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -747,18 +749,95 @@
     <t xml:space="preserve">custom_mars_8</t>
   </si>
   <si>
-    <t xml:space="preserve">[
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[
 {
 "condition": [{"4254":["4154","4174","4194","4159","4179","4199","4166","4186","4206","4155","4175",
                        "4195","4160","4180","4200","4167","4187","4207","4161","4181","4201","4168",
                        "4188","4208","7037","7038","7039","7040","7041","7042","7044","7045","7056",
-                       "7057","7058","7059","7060","7061","7062","7063","7064","7075","7076","7077"]}],
+                       "7057","7058","7059","7060","7061","7062","7063","7064","7075","7076","7077",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                       "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">7034", "7035", "7036", "7074", "4153", "4173", "4193", "4158", "4178", "4198", "4211", "4212", "4213", "7053", "7054", "7055"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">]}],
 "core": [{"product_ean_code":["4607065733544","4607065733605","4607065733568","4607065733582",
                                 "4607065739201","4607065739188","4607065739140","4607065739164"]}],
 "neighbor_1": [{"brand_name":["Whiskas"], "form_factor":["POUCH","Pouch","pouch"]}],
 "neighbor_2": [{"brand_name":["Perfect Fit","Sheba"], "form_factor":["POUCH","Pouch","pouch"]},
-               {"brand_name":["Felix","Gourmet"], "Client Sub Category Name":["WET"]}]
-},
+               {"brand_name":["Felix","Gourmet"], "Client Sub Category Name":["WET"]}],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">"exception": [{"4254": ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">7034", "7035", "7036", "7074", "4153", "4173", "4193", "4158", "4178", "4198", "4211", "4212", "4213", "7053", "7054", "7055"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">]}]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">},
 {
 "core": [{"product_ean_code":["4607065739201","4607065739188","4607065739140","4607065739164"]}],
 "neighbor_1": [{"brand_name":["Whiskas"], "form_factor":["POUCH","Pouch","pouch"]}],
@@ -766,6 +845,7 @@
                {"brand_name":["Felix","Gourmet"], "Client Sub Category Name":["WET"]}]
 }
 ]</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Дополнительные вопросы</t>
@@ -1641,7 +1721,7 @@
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="168" formatCode="0%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1680,7 +1760,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1688,6 +1773,7 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1928,7 +2014,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1980,7 +2066,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2086,9 +2172,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="259.028340080972"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.0404858299595"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.4655870445344"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.9554655870445"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,43 +2397,43 @@
   <dimension ref="A1:AG69"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="Q51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="Q26" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
-      <selection pane="bottomRight" activeCell="Q67" activeCellId="0" sqref="Q67"/>
+      <selection pane="bottomLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="Q44" activeCellId="0" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1943319838057"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="254.570850202429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="204.63967611336"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="127.627530364372"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="83.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="90.1497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="108.777327935223"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="107.862348178138"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="65.9271255060729"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.6720647773279"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="49.587044534413"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="93.8056680161943"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="56.331983805668"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="64.2145748987854"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="64.8987854251012"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="47.7611336032389"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="106.145748987854"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="107.404858299595"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="69.0121457489879"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="69.4696356275304"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="59.6437246963563"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="95.5222672064777"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="23.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.66801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="220.291497975708"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="137.453441295547"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="89.4655870445344"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="97.0080971659919"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="117.117408906883"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="116.089068825911"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="70.8421052631579"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="65.2429149797571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="53.246963562753"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="100.890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="60.5587044534413"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="48.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="69.1255060728745"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="69.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="51.417004048583"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="114.145748987854"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="115.631578947368"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="74.2672064777328"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="74.7246963562753"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="64.2145748987854"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="102.834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7510,7 +7596,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE1"/>
+  <autoFilter ref="A1:AE69"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7540,32 +7626,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6801619433198"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="33.1336032388664"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.7651821862348"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="142.137651821862"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.1902834008097"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="254.570850202429"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="3.76923076923077"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="84.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="83.0688259109312"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="90.1497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="108.777327935223"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="107.862348178138"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="65.9271255060729"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="90.1497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="103.518218623482"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="93.8056680161943"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="49.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="24.4534412955466"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="64.2145748987854"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="64.8987854251012"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="57.0161943319838"/>
-    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="87.2955465587045"/>
-    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="35.6477732793522"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.8218623481781"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="152.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.1619433198381"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.66801619433198"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="91.1781376518219"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="89.4655870445344"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="97.0080971659919"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="117.117408906883"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="116.089068825911"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="70.8421052631579"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="97.0080971659919"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="111.404858299595"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="100.890688259109"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="53.587044534413"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="48.6761133603239"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="69.1255060728745"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="69.8137651821862"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="61.3562753036437"/>
+    <col collapsed="false" hidden="false" max="31" min="26" style="0" width="93.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8943,15 +9029,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="200.2995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="56.4453441295547"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.165991902834"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.246963562753"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="200.2995951417"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="53.587044534413"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="115.744939271255"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.3036437246964"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="215.607287449393"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="60.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.6761133603239"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="215.607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="57.587044534413"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="124.542510121458"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.1983805668016"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27986,11 +28072,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="28.9068825910931"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="71.7570850202429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.4736842105263"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="127.056680161943"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="31.0769230769231"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.0404858299595"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="136.769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.3967611336032"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29803,9 +29889,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.089068825911"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.31983805668"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="120.65991902834"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="116.546558704453"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29873,9 +29959,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.5263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29934,10 +30020,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.0404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="87.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9109311740891"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="93.6923076923077"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30128,11 +30214,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.0364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="95.9797570850202"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="107.862348178138"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="125.570850202429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.121457489879"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.291497975709"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="116.089068825911"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="135.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
